--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -798,6 +798,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -798,7 +798,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1101010011626521</v>
+        <v>0.1088265356534649</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01662049861495851</v>
+        <v>0.00747562296858062</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1048796767151783</v>
+        <v>0.1049967742122975</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003993364870676475</v>
+        <v>0.002960769800147922</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1147782689887442</v>
+        <v>0.1153860524744739</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0001640958319659713</v>
+        <v>8.203445447074742E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1370520428934571</v>
+        <v>0.1365694723408425</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008607262890400813</v>
+        <v>0.003264428642302031</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1303579821195337</v>
+        <v>0.1312559315883912</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001749016178399732</v>
+        <v>-0.004510403026334986</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1439719540777749</v>
+        <v>0.1441386565611359</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003952188162714587</v>
+        <v>0.0112261685860835</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1277550024445044</v>
+        <v>0.1286014030723448</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001487209994051275</v>
+        <v>0.0005940005940006099</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1311040715981554</v>
+        <v>0.1302251740970493</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01177375790460766</v>
+        <v>0.00682481751824815</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005104159797118868</v>
+        <v>0.003570964423339484</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1088265356534649</v>
+        <v>0.1092499541036314</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00747562296858062</v>
+        <v>-0.04656414668243902</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1049967742122975</v>
+        <v>0.1049329337173569</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002960769800147922</v>
+        <v>-0.03370233702337011</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1153860524744739</v>
+        <v>0.1149849110796559</v>
       </c>
       <c r="E4" s="1">
-        <v>8.203445447074742E-05</v>
+        <v>-0.01460093511606919</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1365694723408425</v>
+        <v>0.1365277578718573</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003264428642302031</v>
+        <v>-0.01363829667993022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1312559315883912</v>
+        <v>0.1301989785170908</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004510403026334986</v>
+        <v>-0.007161648640748197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1441386565611359</v>
+        <v>0.1452381411843814</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0112261685860835</v>
+        <v>-0.01100583787922293</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1286014030723448</v>
+        <v>0.1282199235966322</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0005940005940006099</v>
+        <v>-0.02151973879489455</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1302251740970493</v>
+        <v>0.1306473999293941</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00682481751824815</v>
+        <v>-0.02353564279471398</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003570964423339484</v>
+        <v>-0.02052954585200351</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1092499541036314</v>
+        <v>0.1063460595208126</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.04656414668243902</v>
+        <v>0.024926686217009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1049329337173569</v>
+        <v>0.1035217021513573</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03370233702337011</v>
+        <v>0.00935590631364569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1149849110796559</v>
+        <v>0.1156809001984806</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01460093511606919</v>
+        <v>-0.003496212436527202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1365277578718573</v>
+        <v>0.1374883246703911</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01363829667993022</v>
+        <v>0.0006684491978610207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1301989785170908</v>
+        <v>0.1319759454020601</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007161648640748197</v>
+        <v>-0.002208155454144101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1452381411843814</v>
+        <v>0.1466503385991087</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01100583787922293</v>
+        <v>9.676795045487907E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1282199235966322</v>
+        <v>0.1280903000199886</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02151973879489455</v>
+        <v>0.002275140300318501</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1306473999293941</v>
+        <v>0.1302464294378008</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02353564279471398</v>
+        <v>0.003355476314709449</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02052954585200351</v>
+        <v>0.00375808302300018</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1063460595208126</v>
+        <v>0.1085888285438651</v>
       </c>
       <c r="E2" s="1">
-        <v>0.024926686217009</v>
+        <v>0.02255970067128854</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1035217021513573</v>
+        <v>0.1040990287056252</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00935590631364569</v>
+        <v>0.01412447190869548</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1156809001984806</v>
+        <v>0.1148448586828432</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003496212436527202</v>
+        <v>0.008938267479742912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1374883246703911</v>
+        <v>0.1370651265057656</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0006684491978610207</v>
+        <v>0.003006012024048044</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1319759454020601</v>
+        <v>0.131191493474018</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002208155454144101</v>
+        <v>0.008999704927707297</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1466503385991087</v>
+        <v>0.1461154157883357</v>
       </c>
       <c r="E7" s="1">
-        <v>9.676795045487907E-05</v>
+        <v>0.00454765360425724</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1280903000199886</v>
+        <v>0.1279010606191076</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002275140300318501</v>
+        <v>0.009382566585956376</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1302464294378008</v>
+        <v>0.1301941876804396</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003355476314709449</v>
+        <v>-0.0009311293180350733</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00375808302300018</v>
+        <v>0.008282588378830003</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1085888285438651</v>
+        <v>0.1101264281381614</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02255970067128854</v>
+        <v>-0.03874300473525616</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1040990287056252</v>
+        <v>0.1047021675560621</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01412447190869548</v>
+        <v>-0.005222906174221276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1148448586828432</v>
+        <v>0.1149195414895816</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008938267479742912</v>
+        <v>-0.006706408345752646</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1370651265057656</v>
+        <v>0.1363478329474702</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003006012024048044</v>
+        <v>-0.01573426573426573</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.131191493474018</v>
+        <v>0.1312848002434956</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008999704927707297</v>
+        <v>-0.001023541453428978</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1461154157883357</v>
+        <v>0.1455741671802382</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00454765360425724</v>
+        <v>-0.02456174147563073</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1279010606191076</v>
+        <v>0.1280405933066407</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009382566585956376</v>
+        <v>-0.02428785607196404</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1301941876804396</v>
+        <v>0.1290044691383502</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0009311293180350733</v>
+        <v>-0.01686030124286853</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008282588378830003</v>
+        <v>-0.01672432494025411</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1101264281381614</v>
+        <v>0.1076603460213693</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03874300473525616</v>
+        <v>-0.05150022391401698</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1047021675560621</v>
+        <v>0.1059268734094846</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005222906174221276</v>
+        <v>-0.0247515469716858</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1149195414895816</v>
+        <v>0.1160903773100152</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006706408345752646</v>
+        <v>-0.003917646078186232</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1363478329474702</v>
+        <v>0.136485121431921</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01573426573426573</v>
+        <v>-0.005920663114268865</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1312848002434956</v>
+        <v>0.1333811342381396</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001023541453428978</v>
+        <v>-0.002049180327868716</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1455741671802382</v>
+        <v>0.1444138360402323</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02456174147563073</v>
+        <v>-0.009084625259208168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1280405933066407</v>
+        <v>0.1270556823216939</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02428785607196404</v>
+        <v>-0.008912108174554345</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1290044691383502</v>
+        <v>0.1289866292271441</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01686030124286853</v>
+        <v>-0.01581641408117052</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01672432494025411</v>
+        <v>-0.01418697684790537</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1076603460213693</v>
+        <v>0.1035853774462193</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.05150022391401698</v>
+        <v>0.002950897072710124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1059268734094846</v>
+        <v>0.1047916968031245</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0247515469716858</v>
+        <v>-0.002499519323207244</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1160903773100152</v>
+        <v>0.1172997044905044</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003917646078186232</v>
+        <v>-0.0002510460251046176</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.136485121431921</v>
+        <v>0.1376295867688895</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005920663114268865</v>
+        <v>0.00604101080575159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1333811342381396</v>
+        <v>0.1350233858913159</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002049180327868716</v>
+        <v>0.002346729246113233</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1444138360402323</v>
+        <v>0.1451612903225806</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009084625259208168</v>
+        <v>0.007972097658196509</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1270556823216939</v>
+        <v>0.1277355293339671</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008912108174554345</v>
+        <v>0.007751937984496138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289866292271441</v>
+        <v>0.1287734289433986</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01581641408117052</v>
+        <v>0.009982989581118318</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01418697684790537</v>
+        <v>0.004595560124816434</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1035853774462193</v>
+        <v>0.1034157937353346</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002950897072710124</v>
+        <v>-0.004589855243026908</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1047916968031245</v>
+        <v>0.1040515925822588</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002499519323207244</v>
+        <v>0.01779748136725789</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1172997044905044</v>
+        <v>0.11673379967096</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0002510460251046176</v>
+        <v>0.02126056750648697</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1376295867688895</v>
+        <v>0.1378276135050292</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00604101080575159</v>
+        <v>0.01556156968876854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1350233858913159</v>
+        <v>0.1347211301661345</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002346729246113233</v>
+        <v>0.01697395376060862</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1451612903225806</v>
+        <v>0.1456491906922649</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007972097658196509</v>
+        <v>0.01789421651013345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1277355293339671</v>
+        <v>0.1281368665612928</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007751937984496138</v>
+        <v>0.02307692307692299</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1287734289433986</v>
+        <v>0.1294640130867253</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009982989581118318</v>
+        <v>0.009572732344551138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004595560124816434</v>
+        <v>0.01509319094319017</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1034157937353346</v>
+        <v>0.1014105218424303</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004589855243026908</v>
+        <v>-0.01797115157247575</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1040515925822588</v>
+        <v>0.1043287944470134</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01779748136725789</v>
+        <v>-0.006628369421122215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.11673379967096</v>
+        <v>0.1174430363269229</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02126056750648697</v>
+        <v>0.001229407425620721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1378276135050292</v>
+        <v>0.1378912091682604</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01556156968876854</v>
+        <v>-0.007036975349766772</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1347211301661345</v>
+        <v>0.1349707412310079</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01697395376060862</v>
+        <v>0.005467625899280515</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1456491906922649</v>
+        <v>0.1460510918286074</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01789421651013345</v>
+        <v>-0.007672882672882575</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1281368665612928</v>
+        <v>0.1291446660699572</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02307692307692299</v>
+        <v>-0.01082706766917296</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1294640130867253</v>
+        <v>0.1287599390858005</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009572732344551138</v>
+        <v>-0.006343552806636454</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01509319094319017</v>
+        <v>-0.00593766223191794</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1014105218424303</v>
+        <v>0.1001829102659257</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01797115157247575</v>
+        <v>0.01637370575487584</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1043287944470134</v>
+        <v>0.1042563033711244</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006628369421122215</v>
+        <v>0.001334519572953496</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1174430363269229</v>
+        <v>0.1182897864653878</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001229407425620721</v>
+        <v>-0.005730189914865846</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1378912091682604</v>
+        <v>0.137738718112805</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007036975349766772</v>
+        <v>0.002893445716442233</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1349707412310079</v>
+        <v>0.1365193163399668</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005467625899280515</v>
+        <v>-0.008729250143102552</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1460510918286074</v>
+        <v>0.1457961472136296</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007672882672882575</v>
+        <v>0.005774689243417841</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1291446660699572</v>
+        <v>0.1285094537613482</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01082706766917296</v>
+        <v>0.0006080875646092831</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1287599390858005</v>
+        <v>0.1287073644698125</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006343552806636454</v>
+        <v>-0.001662119622245495</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00593766223191794</v>
+        <v>0.001014648280393882</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1001829102659257</v>
+        <v>0.101720065670573</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01637370575487584</v>
+        <v>0.05105425254678986</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1042563033711244</v>
+        <v>0.104289618166841</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001334519572953496</v>
+        <v>0.02087960906263908</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1182897864653878</v>
+        <v>0.1174927497075027</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005730189914865846</v>
+        <v>0.002634612218014309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.137738718112805</v>
+        <v>0.1379972389555115</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002893445716442233</v>
+        <v>0.004181301220939959</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1365193163399668</v>
+        <v>0.1351904343365446</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008729250143102552</v>
+        <v>-0.001154901111592332</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1457961472136296</v>
+        <v>0.1464894393988939</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005774689243417841</v>
+        <v>-0.002919423900350382</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1285094537613482</v>
+        <v>0.1284572598243304</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0006080875646092831</v>
+        <v>0.01276207839562438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1287073644698125</v>
+        <v>0.1283631939398028</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001662119622245495</v>
+        <v>0.01132207152286702</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001014648280393882</v>
+        <v>0.01076624676570881</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.101720065670573</v>
+        <v>0.1054902413638055</v>
       </c>
       <c r="E2" s="1">
-        <v>0.05105425254678986</v>
+        <v>0.01430007820355272</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.104289618166841</v>
+        <v>0.1057853718931584</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02087960906263908</v>
+        <v>0.01419741753870629</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1174927497075027</v>
+        <v>0.1164608639431013</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002634612218014309</v>
+        <v>0.01234868795190502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1379972389555115</v>
+        <v>0.136983059104259</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004181301220939959</v>
+        <v>0.00766315095583403</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1351904343365446</v>
+        <v>0.1330876017010799</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001154901111592332</v>
+        <v>0.01176133103843946</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1464894393988939</v>
+        <v>0.1443258004408463</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002919423900350382</v>
+        <v>0.01323543618974021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1284572598243304</v>
+        <v>0.1293461831793628</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01276207839562438</v>
+        <v>0.01948051948051943</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1283631939398028</v>
+        <v>0.1285208783743866</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01132207152286702</v>
+        <v>0.01552075012167298</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01076624676570881</v>
+        <v>0.01348823206602878</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1054902413638055</v>
+        <v>0.1055747434253866</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01430007820355272</v>
+        <v>0.0001101442890185655</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1057853718931584</v>
+        <v>0.1058593949025973</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01419741753870629</v>
+        <v>0.006094249683219921</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1164608639431013</v>
+        <v>0.1163299178819304</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01234868795190502</v>
+        <v>-0.0001605007623785015</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.136983059104259</v>
+        <v>0.1361957412008451</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00766315095583403</v>
+        <v>0.002616730722053928</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1330876017010799</v>
+        <v>0.1328608313165156</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01176133103843946</v>
+        <v>-0.0002835270768359877</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1443258004408463</v>
+        <v>0.1442898010419001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01323543618974021</v>
+        <v>-0.00200228832951943</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1293461831793628</v>
+        <v>0.1301109473680876</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01948051948051943</v>
+        <v>-0.004053271569195105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1285208783743866</v>
+        <v>0.1287786228627372</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01552075012167298</v>
+        <v>-0.0009665958234162941</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01348823206602878</v>
+        <v>1.604726797288514E-05</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1055747434253866</v>
+        <v>0.1027368546321515</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0001101442890185655</v>
+        <v>0.01071347162069758</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1058593949025973</v>
+        <v>0.1071865300091939</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006094249683219921</v>
+        <v>0.0157215721572157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1163299178819304</v>
+        <v>0.1170816607538862</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0001605007623785015</v>
+        <v>0.004014452027298221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1361957412008451</v>
+        <v>0.1369176047635423</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002616730722053928</v>
+        <v>0.003358178392988576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1328608313165156</v>
+        <v>0.1334424348460063</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0002835270768359877</v>
+        <v>0.001847640704945919</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1442898010419001</v>
+        <v>0.1447934691609345</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00200228832951943</v>
+        <v>-0.0009567546880979716</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1301109473680876</v>
+        <v>0.1295734387248316</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004053271569195105</v>
+        <v>0.008489461358313966</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1287786228627372</v>
+        <v>0.1282680071094535</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0009665958234162941</v>
+        <v>0.01383596369286111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>1.604726797288514E-05</v>
+        <v>0.006698363629035198</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1027368546321515</v>
+        <v>0.1031466095110457</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01071347162069758</v>
+        <v>-0.01059990978800196</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1071865300091939</v>
+        <v>0.1081472610947184</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0157215721572157</v>
+        <v>0.006498493531045035</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1170816607538862</v>
+        <v>0.116769514793387</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004014452027298221</v>
+        <v>0.007916833266693457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1369176047635423</v>
+        <v>0.1364633175822884</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003358178392988576</v>
+        <v>0.004897959183673306</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1334424348460063</v>
+        <v>0.1327994495177891</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001847640704945919</v>
+        <v>0.003972194637537285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1447934691609345</v>
+        <v>0.1436924331624459</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009567546880979716</v>
+        <v>0.005554491476728485</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1295734387248316</v>
+        <v>0.1298039732128766</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008489461358313966</v>
+        <v>0.002902757619738461</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1282680071094535</v>
+        <v>0.129177441125449</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01383596369286111</v>
+        <v>-0.0001290509912729165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006698363629035198</v>
+        <v>0.002888048711710001</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1031466095110457</v>
+        <v>0.1001802189684367</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01059990978800196</v>
+        <v>0.02620239897519516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1081472610947184</v>
+        <v>0.1095316566013352</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006498493531045035</v>
+        <v>0.008483501053124343</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.116769514793387</v>
+        <v>0.1182090664158832</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007916833266693457</v>
+        <v>0.009428729894620291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1364633175822884</v>
+        <v>0.1378192271621025</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004897959183673306</v>
+        <v>0.01245133536882959</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1327994495177891</v>
+        <v>0.1364134042850748</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003972194637537285</v>
+        <v>0.004294223576672529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1436924331624459</v>
+        <v>0.1419047099070783</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005554491476728485</v>
+        <v>0.01672989008851267</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1298039732128766</v>
+        <v>0.127135251978111</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002902757619738461</v>
+        <v>0.01753864447086806</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.129177441125449</v>
+        <v>0.1288064646819783</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0001290509912729165</v>
+        <v>0.009987566250788671</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002888048711710001</v>
+        <v>0.01286085170730233</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1001802189684367</v>
+        <v>0.1014998070682455</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02620239897519516</v>
+        <v>0.003915115751248255</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1095316566013352</v>
+        <v>0.1090582860807263</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008483501053124343</v>
+        <v>-0.006729709346173895</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1182090664158832</v>
+        <v>0.1178085099972805</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009428729894620291</v>
+        <v>-0.007378335949764669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1378192271621025</v>
+        <v>0.1377635045767312</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01245133536882959</v>
+        <v>-0.004964766175528545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1364134042850748</v>
+        <v>0.1352596397728285</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004294223576672529</v>
+        <v>-0.005517241379310311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1419047099070783</v>
+        <v>0.1424467732795342</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01672989008851267</v>
+        <v>-0.009375298957237321</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.127135251978111</v>
+        <v>0.1277224129496254</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01753864447086806</v>
+        <v>-0.004966403739409819</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1288064646819783</v>
+        <v>0.1284410662750285</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009987566250788671</v>
+        <v>-0.0008254056236028928</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01286085170730233</v>
+        <v>-0.00471181964013867</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1014998070682455</v>
+        <v>0.1023795846995838</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003915115751248255</v>
+        <v>0.01260385463177527</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1090582860807263</v>
+        <v>0.1088371766601758</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006729709346173895</v>
+        <v>0.0160037380994098</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1178085099972805</v>
+        <v>0.1174928845136071</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007378335949764669</v>
+        <v>0.008698402656966753</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1377635045767312</v>
+        <v>0.1377284928063982</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004964766175528545</v>
+        <v>0.01215193948173199</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1352596397728285</v>
+        <v>0.1351501829778466</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005517241379310311</v>
+        <v>0.004576976421636791</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1424467732795342</v>
+        <v>0.1417793308301158</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009375298957237321</v>
+        <v>0.00704973442781287</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1277224129496254</v>
+        <v>0.1276897429188753</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004966403739409819</v>
+        <v>0.02466236054022319</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1284410662750285</v>
+        <v>0.1289426045933973</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0008254056236028928</v>
+        <v>0.009840691742742935</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00471181964013867</v>
+        <v>0.0117639485339236</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1023795846995838</v>
+        <v>0.1024645741258322</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01260385463177527</v>
+        <v>0.03081044876088423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1088371766601758</v>
+        <v>0.1092932580679087</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0160037380994098</v>
+        <v>0.00954297211842503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1174928845136071</v>
+        <v>0.117136892556971</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008698402656966753</v>
+        <v>-0.0001567889620569529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1377284928063982</v>
+        <v>0.1377813088891827</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01215193948173199</v>
+        <v>0.003975510853144737</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1351501829778466</v>
+        <v>0.1341901560887291</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004576976421636791</v>
+        <v>-0.004694187491371071</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1417793308301158</v>
+        <v>0.1411187240528899</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00704973442781287</v>
+        <v>0.00268507863444567</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1276897429188753</v>
+        <v>0.1293175879468907</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02466236054022319</v>
+        <v>0.0097421203438397</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289426045933973</v>
+        <v>0.1286974982715956</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009840691742742935</v>
+        <v>0.0170951908953032</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0117639485339236</v>
+        <v>0.007938284266182816</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1024645741258322</v>
+        <v>0.104789703184693</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03081044876088423</v>
+        <v>-0.001949317738791478</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1092932580679087</v>
+        <v>0.1094672583676208</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00954297211842503</v>
+        <v>-0.003302773190592911</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.117136892556971</v>
+        <v>0.1161961288834615</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0001567889620569529</v>
+        <v>-0.0007840677434531873</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1377813088891827</v>
+        <v>0.1372396129181073</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003975510853144737</v>
+        <v>0.001504712124811736</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1341901560887291</v>
+        <v>0.1325083533599373</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004694187491371071</v>
+        <v>-0.002358163406852465</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1411187240528899</v>
+        <v>0.1403832368831791</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00268507863444567</v>
+        <v>0.00181713848508025</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1293175879468907</v>
+        <v>0.1295490185158605</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0097421203438397</v>
+        <v>-0.002837684449489286</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1286974982715956</v>
+        <v>0.1298666878871407</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0170951908953032</v>
+        <v>-0.002700528951431691</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007938284266182816</v>
+        <v>-0.001226122033804011</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.104789703184693</v>
+        <v>0.1047138266875779</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001949317738791478</v>
+        <v>-0.006293402777777679</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1094672583676208</v>
+        <v>0.1092396539881565</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003302773190592911</v>
+        <v>-0.003885048277438186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1161961288834615</v>
+        <v>0.1162475569378272</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007840677434531873</v>
+        <v>-0.0004708097928437516</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1372396129181073</v>
+        <v>0.1376148516294312</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001504712124811736</v>
+        <v>-0.0009489166534870641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1325083533599373</v>
+        <v>0.1323581642715088</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002358163406852465</v>
+        <v>-0.002641824249165814</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1403832368831791</v>
+        <v>0.1408109841158056</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00181713848508025</v>
+        <v>-0.002100238663484411</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1295490185158605</v>
+        <v>0.1293399858871195</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002837684449489286</v>
+        <v>-0.003984063745019917</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1298666878871407</v>
+        <v>0.1296749764825733</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002700528951431691</v>
+        <v>-0.008859351177616714</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001226122033804011</v>
+        <v>-0.003578261715174169</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1047138266875779</v>
+        <v>0.1044284928778688</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006293402777777679</v>
+        <v>-0.02118366455557996</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1092396539881565</v>
+        <v>0.1092060203803956</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003885048277438186</v>
+        <v>-0.004359047892170786</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1162475569378272</v>
+        <v>0.1166100878626287</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004708097928437516</v>
+        <v>0.009342125922436884</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1376148516294312</v>
+        <v>0.1379779879567954</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009489166534870641</v>
+        <v>0.003744657274022511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1323581642715088</v>
+        <v>0.1324825545163154</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002641824249165814</v>
+        <v>0.005018820577164407</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1408109841158056</v>
+        <v>0.14101985338517</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002100238663484411</v>
+        <v>0.006409643164641876</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1293399858871195</v>
+        <v>0.1292873109736802</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003984063745019917</v>
+        <v>0.005428571428571338</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1296749764825733</v>
+        <v>0.1289876920471459</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008859351177616714</v>
+        <v>0.0007404239818180613</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003578261715174169</v>
+        <v>0.00128399805780588</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1044284928778688</v>
+        <v>0.1020852374680596</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02118366455557996</v>
+        <v>-0.008589915216421162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1092060203803956</v>
+        <v>0.108590556044387</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004359047892170786</v>
+        <v>-0.007949766691629612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1166100878626287</v>
+        <v>0.1175485418877859</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009342125922436884</v>
+        <v>-0.007311192346581619</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1379779879567954</v>
+        <v>0.1383170693846016</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003744657274022511</v>
+        <v>-0.008067778486607446</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1324825545163154</v>
+        <v>0.1329767188383154</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005018820577164407</v>
+        <v>-0.001942016923290324</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.14101985338517</v>
+        <v>0.1417417442002359</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006409643164641876</v>
+        <v>-0.008745247148289059</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1292873109736802</v>
+        <v>0.1298224645837237</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005428571428571338</v>
+        <v>-0.02955385052571746</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289876920471459</v>
+        <v>0.1289176675928909</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0007404239818180613</v>
+        <v>-0.01089833626777981</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00128399805780588</v>
+        <v>-0.01045505602480068</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1020852374680596</v>
+        <v>0.1022776525205482</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008589915216421162</v>
+        <v>-0.02678069089681567</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.108590556044387</v>
+        <v>0.1088654811636526</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007949766691629612</v>
+        <v>-0.006852099181232307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1175485418877859</v>
+        <v>0.1179220030362852</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007311192346581619</v>
+        <v>0.004779440570398918</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1383170693846016</v>
+        <v>0.1386507593649314</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008067778486607446</v>
+        <v>0.003338898163605775</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1329767188383154</v>
+        <v>0.1341207153934527</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001942016923290324</v>
+        <v>0.006115357887421791</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1417417442002359</v>
+        <v>0.1419866560598551</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008745247148289059</v>
+        <v>0.008151131568852943</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1298224645837237</v>
+        <v>0.1273168153074749</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02955385052571746</v>
+        <v>-0.00234260614934112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289176675928909</v>
+        <v>0.1288599171537998</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01089833626777981</v>
+        <v>0.00026401003238119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01045505602480068</v>
+        <v>-0.0007451660551103245</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1022776525205482</v>
+        <v>0.09961281441069632</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02678069089681567</v>
+        <v>-0.03549543299803448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1088654811636526</v>
+        <v>0.1082001511691157</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006852099181232307</v>
+        <v>-0.01952873764836582</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1179220030362852</v>
+        <v>0.1185739615328938</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004779440570398918</v>
+        <v>-0.004522769806612703</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1386507593649314</v>
+        <v>0.1392174402415049</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003338898163605775</v>
+        <v>-0.004753981459472256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1341207153934527</v>
+        <v>0.1350415399397936</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006115357887421791</v>
+        <v>-0.004006078187595019</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1419866560598551</v>
+        <v>0.1432507535733523</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008151131568852943</v>
+        <v>-0.00171216588985057</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1273168153074749</v>
+        <v>0.1271132826564103</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00234260614934112</v>
+        <v>-0.01761080129145887</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1288599171537998</v>
+        <v>0.1289900564762331</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00026401003238119</v>
+        <v>-0.01528254614457125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0007451660551103245</v>
+        <v>-0.0118430514823622</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09961281441069632</v>
+        <v>0.09722849652088532</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03549543299803448</v>
+        <v>-0.01594341884440176</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1082001511691157</v>
+        <v>0.1073585921371751</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01952873764836582</v>
+        <v>-0.005426680183672206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1185739615328938</v>
+        <v>0.1194523592399912</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004522769806612703</v>
+        <v>-0.000626664577784819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1392174402415049</v>
+        <v>0.1402161906766053</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004753981459472256</v>
+        <v>0.001034949446700129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1350415399397936</v>
+        <v>0.1361125408003148</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004006078187595019</v>
+        <v>-0.0008321775312065682</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1432507535733523</v>
+        <v>0.1447194038699169</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00171216588985057</v>
+        <v>0.007622677465459526</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1271132826564103</v>
+        <v>0.1263713381577403</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01761080129145887</v>
+        <v>0.005975500448162752</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289900564762331</v>
+        <v>0.1285410785973712</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01528254614457125</v>
+        <v>-0.008183239588198443</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0118430514823622</v>
+        <v>-0.001369366196217858</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09722849652088532</v>
+        <v>0.0958095402228978</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01594341884440176</v>
+        <v>-0.0274089414057741</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1073585921371751</v>
+        <v>0.1069224073228835</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005426680183672206</v>
+        <v>0.001558939920853764</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1194523592399912</v>
+        <v>0.1195411983538037</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.000626664577784819</v>
+        <v>0.007524690390343425</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1402161906766053</v>
+        <v>0.140553776936452</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001034949446700129</v>
+        <v>0.001908700493080895</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1361125408003148</v>
+        <v>0.1361857591771688</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0008321775312065682</v>
+        <v>0.007773459189339249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1447194038699169</v>
+        <v>0.1460225114997454</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007622677465459526</v>
+        <v>0.01030732860520089</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1263713381577403</v>
+        <v>0.1273007915462319</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005975500448162752</v>
+        <v>0.008316008316008316</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1285410785973712</v>
+        <v>0.1276640149408169</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008183239588198443</v>
+        <v>0.005531897469494673</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001369366196217858</v>
+        <v>0.003037028238218831</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0958095402228978</v>
+        <v>0.09290135810089294</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0274089414057741</v>
+        <v>0.01290080160320639</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1069224073228835</v>
+        <v>0.1067648450827276</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001558939920853764</v>
+        <v>0.01005747126436796</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1195411983538037</v>
+        <v>0.120076034552637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007524690390343425</v>
+        <v>0.007701882682433547</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.140553776936452</v>
+        <v>0.1403956663964255</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001908700493080895</v>
+        <v>0.01135100809652334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1361857591771688</v>
+        <v>0.1368288405657009</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007773459189339249</v>
+        <v>0.004407713498622678</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1460225114997454</v>
+        <v>0.1470809245882521</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01030732860520089</v>
+        <v>0.009546986147510372</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1273007915462319</v>
+        <v>0.1279707751296294</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008316008316008316</v>
+        <v>0.01384388807069215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1276640149408169</v>
+        <v>0.1279815555837346</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005531897469494673</v>
+        <v>0.01255848614046462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003037028238218831</v>
+        <v>0.01017687978448834</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09290135810089294</v>
+        <v>0.09315186476104689</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01290080160320639</v>
+        <v>-0.0586125881043652</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1067648450827276</v>
+        <v>0.1067522248848124</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01005747126436796</v>
+        <v>-0.02542674253200561</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.120076034552637</v>
+        <v>0.1197818406906597</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007701882682433547</v>
+        <v>-0.009032656527445337</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1403956663964255</v>
+        <v>0.1405588482412111</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01135100809652334</v>
+        <v>-0.006592889098186894</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1368288405657009</v>
+        <v>0.1360474048095251</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004407713498622678</v>
+        <v>0.001508502468458461</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1470809245882521</v>
+        <v>0.1469892125916969</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009546986147510372</v>
+        <v>-0.006860745410717572</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1279707751296294</v>
+        <v>0.1284353174312631</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01384388807069215</v>
+        <v>-0.02934340499709487</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1279815555837346</v>
+        <v>0.1282832865897847</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01255848614046462</v>
+        <v>-0.01064929319740204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01017687978448834</v>
+        <v>-0.0161209539269328</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09315186476104689</v>
+        <v>0.08912883471871574</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0586125881043652</v>
+        <v>0.01050834099566544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1067522248848124</v>
+        <v>0.1057425340677712</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02542674253200561</v>
+        <v>0.002067749194186064</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1197818406906597</v>
+        <v>0.1206448017561099</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009032656527445337</v>
+        <v>-0.008569647865378616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1405588482412111</v>
+        <v>0.1419200458636643</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006592889098186894</v>
+        <v>-0.008848858339258858</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1360474048095251</v>
+        <v>0.1384851453024938</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001508502468458461</v>
+        <v>-0.009722032041626916</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1469892125916969</v>
+        <v>0.1483726659375793</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006860745410717572</v>
+        <v>-0.01297610156833462</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1284353174312631</v>
+        <v>0.1267092620719243</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02934340499709487</v>
+        <v>-0.009877282250823072</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1282832865897847</v>
+        <v>0.1289967102817416</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01064929319740204</v>
+        <v>-0.0009389976707979697</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0161209539269328</v>
+        <v>-0.005778795180670371</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08912883471871574</v>
+        <v>0.09058892575405596</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01050834099566544</v>
+        <v>-0.02521773040426378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1057425340677712</v>
+        <v>0.1065770701668311</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002067749194186064</v>
+        <v>-0.03083085513139538</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1206448017561099</v>
+        <v>0.1203061428467596</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008569647865378616</v>
+        <v>-0.0220807795065221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1419200458636643</v>
+        <v>0.1414818098834224</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008848858339258858</v>
+        <v>-0.02422797927461151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1384851453024938</v>
+        <v>0.137935891547892</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009722032041626916</v>
+        <v>-0.01645464601769908</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1483726659375793</v>
+        <v>0.1472985754523524</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01297610156833462</v>
+        <v>-0.0254421640026482</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1267092620719243</v>
+        <v>0.1261869273341888</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009877282250823072</v>
+        <v>-0.03053204353083427</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1289967102817416</v>
+        <v>0.1296246570144979</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0009389976707979697</v>
+        <v>-0.02237403163856533</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005778795180670371</v>
+        <v>-0.02442483280713093</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09058892575405596</v>
+        <v>0.09051529970864942</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02521773040426378</v>
+        <v>-0.01800240032004274</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1065770701668311</v>
+        <v>0.1058772418873681</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03083085513139538</v>
+        <v>0.002943202454755989</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1203061428467596</v>
+        <v>0.1205952072066437</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0220807795065221</v>
+        <v>0.0140618722378465</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1414818098834224</v>
+        <v>0.1415103583694842</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02422797927461151</v>
+        <v>0.01282078512808527</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.137935891547892</v>
+        <v>0.1390627906916728</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01645464601769908</v>
+        <v>0.01279347673274289</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1472985754523524</v>
+        <v>0.1471449722848034</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0254421640026482</v>
+        <v>0.01698369565217384</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1261869273341888</v>
+        <v>0.1253969829180922</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.03053204353083427</v>
+        <v>0.01153726223885254</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1296246570144979</v>
+        <v>0.1298971469332861</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02237403163856533</v>
+        <v>0.009251821855608355</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02442483280713093</v>
+        <v>0.009118878934074148</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09051529970864942</v>
+        <v>0.08808259255053792</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01800240032004274</v>
+        <v>0.03965236284627927</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1058772418873681</v>
+        <v>0.1052292869178707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002943202454755989</v>
+        <v>0.02347652347652329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1205952072066437</v>
+        <v>0.1211859218529886</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0140618722378465</v>
+        <v>0.01402535657686199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1415103583694842</v>
+        <v>0.1420294826105429</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01282078512808527</v>
+        <v>0.01718019035328289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1390627906916728</v>
+        <v>0.1395691728783703</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01279347673274289</v>
+        <v>0.008328706274292053</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1471449722848034</v>
+        <v>0.1482917828956922</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01698369565217384</v>
+        <v>0.01488691669052389</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1253969829180922</v>
+        <v>0.1256975005045623</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01153726223885254</v>
+        <v>0.02527743526510484</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1298971469332861</v>
+        <v>0.1299142597894349</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009251821855608355</v>
+        <v>0.02101030927835046</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009118878934074148</v>
+        <v>0.01937975733165209</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08808259255053792</v>
+        <v>0.08983430837443938</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03965236284627927</v>
+        <v>-0.002220480668756686</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1052292869178707</v>
+        <v>0.1056521909210094</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02347652347652329</v>
+        <v>-0.006405563689604543</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1211859218529886</v>
+        <v>0.120549379890317</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01402535657686199</v>
+        <v>-0.004454168945846604</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1420294826105429</v>
+        <v>0.1417230184516677</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01718019035328289</v>
+        <v>-0.001721512964871996</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1395691728783703</v>
+        <v>0.1380561096216016</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008328706274292053</v>
+        <v>-0.00399229074889873</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1482917828956922</v>
+        <v>0.1476381978660237</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01488691669052389</v>
+        <v>0.00216267042783258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1256975005045623</v>
+        <v>0.126424730341808</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02527743526510484</v>
+        <v>-0.007516536380036132</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1299142597894349</v>
+        <v>0.1301220645331332</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02101030927835046</v>
+        <v>-0.006244067933520392</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01937975733165209</v>
+        <v>-0.003651796961334441</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08983430837443938</v>
+        <v>0.08996336095747878</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002220480668756686</v>
+        <v>0.01976698520748799</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1056521909210094</v>
+        <v>0.1053601830795341</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006405563689604543</v>
+        <v>-0.004973291582243577</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.120549379890317</v>
+        <v>0.1204522999288343</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004454168945846604</v>
+        <v>-0.008241758241758323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1417230184516677</v>
+        <v>0.1419975867939534</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001721512964871996</v>
+        <v>-0.006615941010176041</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1380561096216016</v>
+        <v>0.1380089300838475</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00399229074889873</v>
+        <v>-0.004422944022114628</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1476381978660237</v>
+        <v>0.1484997816820724</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00216267042783258</v>
+        <v>-0.01266654156502156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.126424730341808</v>
+        <v>0.1259343409002849</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007516536380036132</v>
+        <v>0.003635262041805642</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1301220645331332</v>
+        <v>0.1297835165739946</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006244067933520392</v>
+        <v>-0.003245288540087543</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003651796961334441</v>
+        <v>-0.003132633939024743</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08996336095747878</v>
+        <v>0.09202996156374289</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01976698520748799</v>
+        <v>-0.0183568677792042</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1053601830795341</v>
+        <v>0.1051656416260982</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004973291582243577</v>
+        <v>0.0002468221646303448</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1204522999288343</v>
+        <v>0.1198349602567391</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008241758241758323</v>
+        <v>-0.001424614166996352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1419975867939534</v>
+        <v>0.1415014112594686</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006615941010176041</v>
+        <v>-0.00543739005277466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1380089300838475</v>
+        <v>0.1378302961751589</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004422944022114628</v>
+        <v>-0.004164931278633932</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1484997816820724</v>
+        <v>0.1470795494132282</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01266654156502156</v>
+        <v>-0.002850898032880189</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1259343409002849</v>
+        <v>0.1267893297871168</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003635262041805642</v>
+        <v>-0.004829459704195682</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1297835165739946</v>
+        <v>0.1297688499184475</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003245288540087543</v>
+        <v>-0.004846065553383183</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003132633939024743</v>
+        <v>-0.004838096395362035</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09202996156374289</v>
+        <v>0.09077978105910584</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0183568677792042</v>
+        <v>0.03007715443964964</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1051656416260982</v>
+        <v>0.105703000141372</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0002468221646303448</v>
+        <v>0.02227020357803844</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1198349602567391</v>
+        <v>0.1202460034304092</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001424614166996352</v>
+        <v>0.01149243084726947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1415014112594686</v>
+        <v>0.1414161980916658</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00543739005277466</v>
+        <v>0.01053223990995344</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1378302961751589</v>
+        <v>0.1379235297958163</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004164931278633932</v>
+        <v>0.01184999302941558</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1470795494132282</v>
+        <v>0.1473732465882204</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002850898032880189</v>
+        <v>0.007910035261602832</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1267893297871168</v>
+        <v>0.1267904301510683</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004829459704195682</v>
+        <v>0.01941158629056727</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1297688499184475</v>
+        <v>0.1297678107423421</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004846065553383183</v>
+        <v>0.01451475444764028</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004838096395362035</v>
+        <v>0.01510064475904072</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09077978105910584</v>
+        <v>0.09211912044072743</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03007715443964964</v>
+        <v>-0.005078075409419736</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.105703000141372</v>
+        <v>0.1064495703270682</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02227020357803844</v>
+        <v>-0.00392251523746312</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1202460034304092</v>
+        <v>0.119818584430478</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01149243084726947</v>
+        <v>-0.00148879485973985</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1414161980916658</v>
+        <v>0.140779762238298</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01053223990995344</v>
+        <v>0.001113851539501942</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1379235297958163</v>
+        <v>0.1374818579645535</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01184999302941558</v>
+        <v>-0.001515569027280228</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1473732465882204</v>
+        <v>0.1463293072783039</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007910035261602832</v>
+        <v>0.00425491679273815</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1267904301510683</v>
+        <v>0.127328885262845</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01941158629056727</v>
+        <v>-0.002380243975007357</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1297678107423421</v>
+        <v>0.1296929120577259</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01451475444764028</v>
+        <v>0.004888844911946411</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01510064475904072</v>
+        <v>-0.0001616849372765294</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09211912044072743</v>
+        <v>0.09166615363678114</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005078075409419736</v>
+        <v>0.008549189740972185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1064495703270682</v>
+        <v>0.1060491668183242</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00392251523746312</v>
+        <v>0.01720586453410888</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.119818584430478</v>
+        <v>0.119659546284112</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00148879485973985</v>
+        <v>0.009495409244290931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.140779762238298</v>
+        <v>0.1409593609986395</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001113851539501942</v>
+        <v>0.007549868870698528</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1374818579645535</v>
+        <v>0.1372956933643795</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001515569027280228</v>
+        <v>0.003311715192493514</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1463293072783039</v>
+        <v>0.1469756900603407</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00425491679273815</v>
+        <v>0.006308257226250058</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.127328885262845</v>
+        <v>0.1270463529324588</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002380243975007357</v>
+        <v>0.01491201908738438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1296929120577259</v>
+        <v>0.1303480359049642</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004888844911946411</v>
+        <v>0.008763539175692614</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0001616849372765294</v>
+        <v>0.009227452443612227</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09166615363678114</v>
+        <v>0.09160454836340519</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008549189740972185</v>
+        <v>0.005566801619433237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1060491668183242</v>
+        <v>0.106887534772626</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01720586453410888</v>
+        <v>0.001727218582489476</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.119659546284112</v>
+        <v>0.1196913167131816</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009495409244290931</v>
+        <v>-0.001321517412935291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1409593609986395</v>
+        <v>0.1407250519656389</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007549868870698528</v>
+        <v>-0.005679129200189426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1372956933643795</v>
+        <v>0.1364909141783919</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003311715192493514</v>
+        <v>-0.004125979920231004</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1469756900603407</v>
+        <v>0.1465505621761816</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006308257226250058</v>
+        <v>-0.008701347305389073</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1270463529324588</v>
+        <v>0.1277619532248845</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01491201908738438</v>
+        <v>-0.001175433441081397</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1303480359049642</v>
+        <v>0.1302881186056903</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008763539175692614</v>
+        <v>-0.005022002386497082</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009227452443612227</v>
+        <v>-0.002905636451934646</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09160454836340519</v>
+        <v>0.09238292390281035</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005566801619433237</v>
+        <v>0.01698540513336688</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.106887534772626</v>
+        <v>0.1073841722742427</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001727218582489476</v>
+        <v>0.007432070872227747</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1196913167131816</v>
+        <v>0.1198814745362923</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001321517412935291</v>
+        <v>0.00186814042188832</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1407250519656389</v>
+        <v>0.1403336146800688</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005679129200189426</v>
+        <v>0.00547358400761544</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1364909141783919</v>
+        <v>0.1363238629927783</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004125979920231004</v>
+        <v>-0.0006905123601712582</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1465505621761816</v>
+        <v>0.1456987223555632</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008701347305389073</v>
+        <v>0.00528551203397809</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1277619532248845</v>
+        <v>0.1279836515156618</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001175433441081397</v>
+        <v>0.005589879376286966</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1302881186056903</v>
+        <v>0.1300115777425827</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005022002386497082</v>
+        <v>0.01060924580054867</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002905636451934646</v>
+        <v>0.006130028423512623</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09238292390281035</v>
+        <v>0.09337966529029698</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01698540513336688</v>
+        <v>0.006185822095756466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1073841722742427</v>
+        <v>0.1075231391539414</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007432070872227747</v>
+        <v>0.005606704438149146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1198814745362923</v>
+        <v>0.1193736659991157</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00186814042188832</v>
+        <v>0.0004661642452024051</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1403336146800688</v>
+        <v>0.1402420547274613</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00547358400761544</v>
+        <v>0.005680473372780881</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1363238629927783</v>
+        <v>0.135399725514456</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0006905123601712582</v>
+        <v>-0.0005527915975677145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1456987223555632</v>
+        <v>0.1455764270701752</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00528551203397809</v>
+        <v>0.009341845836071672</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1279836515156618</v>
+        <v>0.1279149424567194</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005589879376286966</v>
+        <v>0.01111761263897026</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1300115777425827</v>
+        <v>0.1305903797878341</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01060924580054867</v>
+        <v>0.012883120793868</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006130028423512623</v>
+        <v>0.00642239457764826</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09337966529029698</v>
+        <v>0.09335771520324111</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006185822095756466</v>
+        <v>0.005164146071560349</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1075231391539414</v>
+        <v>0.1074359932747873</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005606704438149146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1193736659991157</v>
+        <v>0.118667186240567</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004661642452024051</v>
+        <v>0.001164867593383523</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1402420547274613</v>
+        <v>0.1401386701497959</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005680473372780881</v>
+        <v>0.001979289244528282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.135399725514456</v>
+        <v>0.1344613140694953</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005527915975677145</v>
+        <v>0.003595132743362761</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1455764270701752</v>
+        <v>0.1459987182329083</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009341845836071672</v>
+        <v>-0.002371982698479158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1279149424567194</v>
+        <v>0.1285116984027035</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01111761263897026</v>
+        <v>0.002893518518518379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1305903797878341</v>
+        <v>0.1314287044265018</v>
       </c>
       <c r="E9" s="1">
-        <v>0.012883120793868</v>
+        <v>-0.002599399145660208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00642239457764826</v>
+        <v>0.001065034556887445</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09335771520324111</v>
+        <v>0.1300689505693754</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005164146071560349</v>
+        <v>0.01238537572942722</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1074359932747873</v>
+        <v>0.1096687114482765</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.008212475974139544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.118667186240567</v>
+        <v>0.110144907058881</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001164867593383523</v>
+        <v>-0.001921008145074565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1401386701497959</v>
+        <v>0.1193318733493163</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001979289244528282</v>
+        <v>-0.004113629307668343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1344613140694953</v>
+        <v>0.1196926130825006</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003595132743362761</v>
+        <v>0.002061288992716959</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1459987182329083</v>
+        <v>0.1505032036626603</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002371982698479158</v>
+        <v>-0.005815563555801706</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1285116984027035</v>
+        <v>0.1302529134611984</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002893518518518379</v>
+        <v>-0.002548853016142827</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1314287044265018</v>
+        <v>0.1303368273677915</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002599399145660208</v>
+        <v>-0.006332425403567044</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001065034556887445</v>
+        <v>-0.001778058837873742</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1300689505693754</v>
+        <v>0.1319144550555642</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01238537572942722</v>
+        <v>0.02705564051288056</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1096687114482765</v>
+        <v>0.1089618002823754</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008212475974139544</v>
+        <v>-0.001644350481559753</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.110144907058881</v>
+        <v>0.1101291338750764</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001921008145074565</v>
+        <v>0.002848564169682044</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1193318733493163</v>
+        <v>0.1190526689078917</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004113629307668343</v>
+        <v>0.001246979970384254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1196926130825006</v>
+        <v>0.1201529732042597</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002061288992716959</v>
+        <v>0.005485463521667455</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1505032036626603</v>
+        <v>0.149894463892681</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005815563555801706</v>
+        <v>-0.005571030640668551</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1302529134611984</v>
+        <v>0.130152336441942</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002548853016142827</v>
+        <v>0.006530380465644692</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1303368273677915</v>
+        <v>0.1297421683402096</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006332425403567044</v>
+        <v>0.01299141262011871</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001778058837873742</v>
+        <v>0.00621153130292762</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1319144550555642</v>
+        <v>0.1337943701845034</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02705564051288056</v>
+        <v>0.007592315656274939</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1089618002823754</v>
+        <v>0.1084291316384225</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001644350481559753</v>
+        <v>-0.004038866775930794</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1101291338750764</v>
+        <v>0.109761329878349</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002848564169682044</v>
+        <v>0.002068648482991042</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1190526689078917</v>
+        <v>0.1186805208577142</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001246979970384254</v>
+        <v>-0.002326302729528607</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1201529732042597</v>
+        <v>0.1196803042200031</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005485463521667455</v>
+        <v>0.001638672675132957</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.149894463892681</v>
+        <v>0.148327643837175</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005571030640668551</v>
+        <v>-0.007631456491391408</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.130152336441942</v>
+        <v>0.1303010785634669</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006530380465644692</v>
+        <v>0.003656821378340336</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1297421683402096</v>
+        <v>0.1310256208203658</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01299141262011871</v>
+        <v>0.001448754584395751</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00621153130292762</v>
+        <v>0.0002593216854978042</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1337943701845034</v>
+        <v>0.1386701192887695</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007592315656274939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1084291316384225</v>
+        <v>0.1085024521476936</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004038866775930794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.109761329878349</v>
+        <v>0.1124073359632902</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002068648482991042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1186805208577142</v>
+        <v>0.1187233503483783</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002326302729528607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1196803042200031</v>
+        <v>0.1209905445892478</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001638672675132957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.148327643837175</v>
+        <v>0.1425887188333804</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007631456491391408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1303010785634669</v>
+        <v>0.1301565928722872</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003656821378340336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1310256208203658</v>
+        <v>0.127960885956953</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001448754584395751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0002593216854978042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -564,7 +564,7 @@
         <v>0.1386701192887695</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.02183502426113826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -581,7 +581,7 @@
         <v>0.1085024521476936</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.003952109729164266</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -598,7 +598,7 @@
         <v>0.1124073359632902</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.004980301791421837</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -615,7 +615,7 @@
         <v>0.1187233503483783</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009242144177448175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -632,7 +632,7 @@
         <v>0.1209905445892478</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.006039457790900427</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -666,7 +666,7 @@
         <v>0.1301565928722872</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002238388360380483</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -683,7 +683,7 @@
         <v>0.127960885956953</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.0002031006702322147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-0.001791061378998982</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1386701192887695</v>
+        <v>0.1358856333797115</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02183502426113826</v>
+        <v>-0.0002254791431790526</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1085024521476936</v>
+        <v>0.1082675523825937</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003952109729164266</v>
+        <v>-0.01172832302485693</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1124073359632902</v>
+        <v>0.1131698525721662</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004980301791421837</v>
+        <v>-0.00821005917159745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1187233503483783</v>
+        <v>0.1190462954025016</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009242144177448175</v>
+        <v>-0.01069559864573721</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1209905445892478</v>
+        <v>0.1219396632978936</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006039457790900427</v>
+        <v>-0.006536819637139701</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1425887188333804</v>
+        <v>0.1428445622119583</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.01096575606002292</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1301565928722872</v>
+        <v>0.1306819933460119</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002238388360380483</v>
+        <v>-0.0117252931323284</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.127960885956953</v>
+        <v>0.1281644474071633</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002031006702322147</v>
+        <v>-0.007148661197956985</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001791061378998982</v>
+        <v>-0.008314823886128919</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1358856333797115</v>
+        <v>0.1369940756157144</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0002254791431790526</v>
+        <v>0.01477221470455548</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1082675523825937</v>
+        <v>0.1078948825013534</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01172832302485693</v>
+        <v>0.02054673200684887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1131698525721662</v>
+        <v>0.1131818081883071</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00821005917159745</v>
+        <v>0.0088000596614215</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1190462954025016</v>
+        <v>0.1187604966206444</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01069559864573721</v>
+        <v>0.0148946099401106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1219396632978936</v>
+        <v>0.1221582903830675</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006536819637139701</v>
+        <v>0.006982677588290631</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1428445622119583</v>
+        <v>0.1424627159819709</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01096575606002292</v>
+        <v>0.01731180704143154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1306819933460119</v>
+        <v>0.1302325695469338</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0117252931323284</v>
+        <v>0.01525423728813546</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1281644474071633</v>
+        <v>0.1283151611620085</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007148661197956985</v>
+        <v>0.0142170951995868</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008314823886128919</v>
+        <v>0.01413563745847912</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1369940756157144</v>
+        <v>0.1347410100502228</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01477221470455548</v>
+        <v>-0.02395480225988711</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1078948825013534</v>
+        <v>0.1096951448586402</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02054673200684887</v>
+        <v>-0.01030219780219788</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1131818081883071</v>
+        <v>0.1128694732263445</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0088000596614215</v>
+        <v>-0.001842570754716943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1187604966206444</v>
+        <v>0.1188656012081007</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0148946099401106</v>
+        <v>-0.009343647085854334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1221582903830675</v>
+        <v>0.1212665951282338</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006982677588290631</v>
+        <v>-0.002133048926809988</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1424627159819709</v>
+        <v>0.1434908176642477</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01731180704143154</v>
+        <v>-0.009706889988580159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1302325695469338</v>
+        <v>0.1312155655552166</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01525423728813546</v>
+        <v>-0.003592152528322567</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1283151611620085</v>
+        <v>0.1278557923089938</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0142170951995868</v>
+        <v>-0.009542385654234486</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01413563745847912</v>
+        <v>-0.009019316317067427</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/FAST_holdings.xlsx
+++ b/FAST_holdings.xlsx
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -561,10 +561,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1347410100502228</v>
+        <v>0.1327102717173147</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02395480225988711</v>
+        <v>-0.03704561241027993</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -578,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1096951448586402</v>
+        <v>0.1095531381851853</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01030219780219788</v>
+        <v>-0.007286606523247641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,10 +595,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1128694732263445</v>
+        <v>0.1136868811783255</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001842570754716943</v>
+        <v>0.0009599054862290402</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1188656012081007</v>
+        <v>0.1188266985609987</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009343647085854334</v>
+        <v>-0.004329339002705823</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1212665951282338</v>
+        <v>0.1221092696760924</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002133048926809988</v>
+        <v>0.003607214428857919</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1434908176642477</v>
+        <v>0.1433912592066973</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009706889988580159</v>
+        <v>-0.0002882952142992945</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1312155655552166</v>
+        <v>0.1319341752896207</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003592152528322567</v>
+        <v>0.001941209095951191</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1278557923089938</v>
+        <v>0.1277883061857654</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009542385654234486</v>
+        <v>-0.009770535443245021</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009019316317067427</v>
+        <v>-0.006713229347942606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
